--- a/2- • Correlation Matrix Using Excel.xlsx
+++ b/2- • Correlation Matrix Using Excel.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Stat using Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0400B150-10A6-4855-B494-4311B9948F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5ED5F-B4E8-4454-A798-11343FAC8DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{DE588329-2BC2-40FA-A44C-EDDBFF045088}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DE588329-2BC2-40FA-A44C-EDDBFF045088}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="1" r:id="rId1"/>
     <sheet name="Analytical " sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet1!$I$22</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>Full Name</t>
   </si>
@@ -146,6 +156,69 @@
   </si>
   <si>
     <t>Manual Testing Using =CORREL</t>
+  </si>
+  <si>
+    <t>[=CORREL(C3:C32,D3:D32)]</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) one-tail</t>
+  </si>
+  <si>
+    <t>F Critical one-tail</t>
   </si>
 </sst>
 </file>
@@ -256,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +352,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -599,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD04F4C8-F116-4141-8D22-8AE0EB9F2F66}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,6 +925,9 @@
       <c r="F10" s="2">
         <v>8.4</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -1234,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCBDFC-C6FE-4761-A27F-DD5E6D5FD6B6}">
   <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,6 +1325,11 @@
     <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1838,4 +1924,812 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D881CE1-62E0-4729-BA80-ABB30A125ABE}">
+  <dimension ref="B2:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>95</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>88</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="10">
+        <v>86.833333333333329</v>
+      </c>
+      <c r="K5" s="10">
+        <v>8.6400000000000023</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>87</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="10">
+        <v>30.419540229885065</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.24386206896551724</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>92</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="10">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10">
+        <v>30</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="10">
+        <v>86.833333333333329</v>
+      </c>
+      <c r="O7" s="10">
+        <v>8.6400000000000023</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.92295617654928042</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="10">
+        <v>30.419540229885065</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0.24386206896551724</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="10">
+        <v>30</v>
+      </c>
+      <c r="O9" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="10">
+        <v>29</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="M10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="10">
+        <v>29</v>
+      </c>
+      <c r="O10" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="10">
+        <v>84.046727550480966</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="10">
+        <v>124.74076168929113</v>
+      </c>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.7165941568610701E-36</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="M12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1.2872437983154923E-23</v>
+      </c>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>92</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="M13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.8608114354760765</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3.4331883137221402E-36</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>88</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="11">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>91</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>89</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>88</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>90</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="10">
+        <v>86.833333333333329</v>
+      </c>
+      <c r="K22" s="10">
+        <v>8.6400000000000023</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>86</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="10">
+        <v>30.419540229885065</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.24386206896551724</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>92</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="10">
+        <v>30</v>
+      </c>
+      <c r="K24" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="10">
+        <v>15.331701149425291</v>
+      </c>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>89</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="10">
+        <v>58</v>
+      </c>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>91</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="10">
+        <v>77.342852282803079</v>
+      </c>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2">
+        <v>78</v>
+      </c>
+      <c r="F29" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1.6175712769441269E-60</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1.671552762454859</v>
+      </c>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>95</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3.2351425538882539E-60</v>
+      </c>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>80</v>
+      </c>
+      <c r="F32" s="2">
+        <v>8</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2.0017174841452352</v>
+      </c>
+      <c r="K32" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>